--- a/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:42:48+00:00</t>
+    <t>2023-03-03T11:24:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T11:24:23+00:00</t>
+    <t>2023-03-03T11:25:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/Remove-PM-fields--FIG-57/StructureDefinition-hiv-arv-treatment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T11:25:12+00:00</t>
+    <t>2023-03-03T12:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1390,7 +1390,17 @@
     <t>Allows prompting for activities and detection of missed planned activities.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>TQ1</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.scheduled[x]:scheduledPeriod</t>
+  </si>
+  <si>
+    <t>scheduledPeriod</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.location</t>
@@ -1460,10 +1470,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
   </si>
   <si>
     <t>.participation[typeCode=PRD].role</t>
@@ -1866,7 +1872,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5941,7 +5947,7 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -6395,7 +6401,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -6621,7 +6627,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6847,13 +6853,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -7081,7 +7087,7 @@
         <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7425,7 +7431,7 @@
         <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>80</v>
@@ -8285,16 +8291,14 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>435</v>
@@ -8321,17 +8325,19 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8352,19 +8358,17 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>442</v>
+        <v>241</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8413,7 +8417,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8428,24 +8432,24 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>447</v>
+        <v>247</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8456,7 +8460,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8468,19 +8472,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8529,13 +8533,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -8544,24 +8548,24 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8572,7 +8576,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8584,16 +8588,20 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8617,35 +8625,37 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>461</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -8654,28 +8664,26 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8696,13 +8704,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>203</v>
+        <v>461</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8729,29 +8737,29 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8769,25 +8777,27 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="B61" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8797,7 +8807,7 @@
         <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -8806,18 +8816,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>471</v>
+        <v>203</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>474</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8841,13 +8849,11 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -8865,7 +8871,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8883,25 +8889,25 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8920,16 +8926,18 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8977,7 +8985,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8995,21 +9003,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9032,13 +9040,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>213</v>
+        <v>473</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9089,7 +9097,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9107,21 +9115,21 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>340</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9144,18 +9152,16 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>334</v>
+        <v>213</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>489</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9203,13 +9209,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
@@ -9218,10 +9224,10 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>339</v>
+        <v>487</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9230,8 +9236,122 @@
         <v>340</v>
       </c>
     </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN64">
+  <autoFilter ref="A1:AN65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9241,7 +9361,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
